--- a/biology/Botanique/Madame_Lombard/Madame_Lombard.xlsx
+++ b/biology/Botanique/Madame_Lombard/Madame_Lombard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Lombard' est un cultivar de rosier obtenu en 1878 par le rosiériste lyonnais François Lacharme (1817-1887)[1]. Ce rosier était fort prisé jusque dans les années 1920 car il se prête bien au forçage et parce qu'il était très cultivé pour les fleurs à couper. 
+'Madame Lombard' est un cultivar de rosier obtenu en 1878 par le rosiériste lyonnais François Lacharme (1817-1887). Ce rosier était fort prisé jusque dans les années 1920 car il se prête bien au forçage et parce qu'il était très cultivé pour les fleurs à couper. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier vigoureux est l'un des rosiers thé les plus résistants au froid, sa zone de rusticité commençant à 6b. Il donne de grandes roses très doubles (+ 41 pétales) d'une couleur rose qui devient plus vive au printemps et plus pâle à l'automne[1], avec des nuances saumon. Elles sont très peu ou pas du tout parfumées et la remontée d'automne est bonne. Son buisson au feuillage foncé peut s'élever à 215 cm pour une envergure de 215 cm[2], mais en général il culmine à 150 cm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier vigoureux est l'un des rosiers thé les plus résistants au froid, sa zone de rusticité commençant à 6b. Il donne de grandes roses très doubles (+ 41 pétales) d'une couleur rose qui devient plus vive au printemps et plus pâle à l'automne, avec des nuances saumon. Elles sont très peu ou pas du tout parfumées et la remontée d'automne est bonne. Son buisson au feuillage foncé peut s'élever à 215 cm pour une envergure de 215 cm, mais en général il culmine à 150 cm.
 On peut admirer ce rosier aux fleurs délicates à la roseraie du Val-de-Marne. Il est issu d'un semis de 'Madame de Tartas' (Bernède, 1859). 
-Tchekhov avait planté des roses 'Madame Lombard' dans le jardin de sa villa de Yalta en Crimée[3].
+Tchekhov avait planté des roses 'Madame Lombard' dans le jardin de sa villa de Yalta en Crimée.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a donné notamment naissance au rosier thé 'Archiduchesse Maria Immaculata' (Soupert &amp; Notting, 1887), au rosier thé 'Archiduc Joseph' (Nabonnand, 1892) et à 'Maman Cochet' (Cochet, 1892)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a donné notamment naissance au rosier thé 'Archiduchesse Maria Immaculata' (Soupert &amp; Notting, 1887), au rosier thé 'Archiduc Joseph' (Nabonnand, 1892) et à 'Maman Cochet' (Cochet, 1892).
 </t>
         </is>
       </c>
